--- a/testData_DDT/testdata1.xlsx
+++ b/testData_DDT/testdata1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RestAssured_tool\Workspace_CM\RestAssured_CM\testData_DDT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0838EC0-A26E-4093-9632-D062706ACC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61EEB26-FC8D-46F0-AFF7-6D9F3DE1ADD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="948" windowWidth="21600" windowHeight="11292" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -479,7 +479,7 @@
   <dimension ref="B1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
